--- a/Docs/R7 numbers.xlsx
+++ b/Docs/R7 numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -523,7 +526,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.5</c:v>
@@ -547,24 +550,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82522112"/>
-        <c:axId val="82523648"/>
+        <c:axId val="161458048"/>
+        <c:axId val="161459584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82522112"/>
+        <c:axId val="161458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82523648"/>
+        <c:crossAx val="161459584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82523648"/>
+        <c:axId val="161459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +575,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82522112"/>
+        <c:crossAx val="161458048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -585,7 +588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -646,7 +649,7 @@
                   <c:v>5575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7271</c:v>
+                  <c:v>7404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,31 +702,31 @@
                   <c:v>3356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3886</c:v>
+                  <c:v>3975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82662528"/>
-        <c:axId val="82664064"/>
+        <c:axId val="161475584"/>
+        <c:axId val="161923840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82662528"/>
+        <c:axId val="161475584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82664064"/>
+        <c:crossAx val="161923840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82664064"/>
+        <c:axId val="161923840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +734,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82662528"/>
+        <c:crossAx val="161475584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -744,7 +747,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1194,24 +1197,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="83237120"/>
-        <c:axId val="83251200"/>
+        <c:axId val="163419264"/>
+        <c:axId val="163420800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83237120"/>
+        <c:axId val="163419264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83251200"/>
+        <c:crossAx val="163420800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83251200"/>
+        <c:axId val="163420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1222,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83237120"/>
+        <c:crossAx val="163419264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,7 +1235,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1631,7 +1634,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1648,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -1710,6 +1713,9 @@
       <c r="D32">
         <v>5</v>
       </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
@@ -1859,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -1938,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1979,10 +1985,10 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>7271</v>
+        <v>7404</v>
       </c>
       <c r="E5">
-        <v>3886</v>
+        <v>3975</v>
       </c>
     </row>
   </sheetData>
@@ -1995,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Docs/R7 numbers.xlsx
+++ b/Docs/R7 numbers.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>Particle system</t>
   </si>
@@ -146,6 +148,162 @@
   </si>
   <si>
     <t>Line counter</t>
+  </si>
+  <si>
+    <t>Worked Hours</t>
+  </si>
+  <si>
+    <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Worked / Estimated Quotient</t>
+  </si>
+  <si>
+    <t>3D Modelling</t>
+  </si>
+  <si>
+    <t>AI state machine</t>
+  </si>
+  <si>
+    <t>Ai Targeting</t>
+  </si>
+  <si>
+    <t>Architecture overview diagram</t>
+  </si>
+  <si>
+    <t>Camera class</t>
+  </si>
+  <si>
+    <t>Class diagrams</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Create Map file</t>
+  </si>
+  <si>
+    <t>D3DContext class</t>
+  </si>
+  <si>
+    <t>DebugFont Class</t>
+  </si>
+  <si>
+    <t>Enemy class</t>
+  </si>
+  <si>
+    <t>Environment class</t>
+  </si>
+  <si>
+    <t>Fruit class</t>
+  </si>
+  <si>
+    <t>Game class</t>
+  </si>
+  <si>
+    <t>Game screen class</t>
+  </si>
+  <si>
+    <t>GameplayHandler Class</t>
+  </si>
+  <si>
+    <t>L1 report</t>
+  </si>
+  <si>
+    <t>L2 report</t>
+  </si>
+  <si>
+    <t>L3 prototype</t>
+  </si>
+  <si>
+    <t>Level class</t>
+  </si>
+  <si>
+    <t>LevelHandler class</t>
+  </si>
+  <si>
+    <t>Line counting script</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Menu class</t>
+  </si>
+  <si>
+    <t>ModelObj class</t>
+  </si>
+  <si>
+    <t>PacmanGame Class</t>
+  </si>
+  <si>
+    <t>Pathfinding</t>
+  </si>
+  <si>
+    <t>Player class</t>
+  </si>
+  <si>
+    <t>Primitives</t>
+  </si>
+  <si>
+    <t>Putting the Foundation together</t>
+  </si>
+  <si>
+    <t>R1 report</t>
+  </si>
+  <si>
+    <t>R2 report</t>
+  </si>
+  <si>
+    <t>R3 report</t>
+  </si>
+  <si>
+    <t>R5 report</t>
+  </si>
+  <si>
+    <t>R6 report</t>
+  </si>
+  <si>
+    <t>Resource Manager</t>
+  </si>
+  <si>
+    <t>Scene class</t>
+  </si>
+  <si>
+    <t>Setup Redmine</t>
+  </si>
+  <si>
+    <t>Sprite class</t>
+  </si>
+  <si>
+    <t>SpriteFont</t>
+  </si>
+  <si>
+    <t>State diagrams</t>
+  </si>
+  <si>
+    <t>Table class</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Window class</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -550,24 +708,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161458048"/>
-        <c:axId val="161459584"/>
+        <c:axId val="55595392"/>
+        <c:axId val="55596928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161458048"/>
+        <c:axId val="55595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161459584"/>
+        <c:crossAx val="55596928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161459584"/>
+        <c:axId val="55596928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +733,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161458048"/>
+        <c:crossAx val="55595392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,7 +746,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -702,31 +860,31 @@
                   <c:v>3356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3975</c:v>
+                  <c:v>4037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="161475584"/>
-        <c:axId val="161923840"/>
+        <c:axId val="56182272"/>
+        <c:axId val="56183808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161475584"/>
+        <c:axId val="56182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161923840"/>
+        <c:crossAx val="56183808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161923840"/>
+        <c:axId val="56183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +892,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161475584"/>
+        <c:crossAx val="56182272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -747,7 +905,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1181,7 +1339,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23</c:v>
@@ -1197,24 +1355,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="163419264"/>
-        <c:axId val="163420800"/>
+        <c:axId val="69160320"/>
+        <c:axId val="69174400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163419264"/>
+        <c:axId val="69160320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163420800"/>
+        <c:crossAx val="69174400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163420800"/>
+        <c:axId val="69174400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1380,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163419264"/>
+        <c:crossAx val="69160320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,7 +1393,432 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relationship between worked and estimated hours</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worked / Estimated Quotient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$D$4:$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>3D Modelling</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AI state machine</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ai Targeting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Architecture overview diagram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Camera class</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camera controllers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Class diagrams</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cleanup</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Create Map file</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>D3DContext class</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DebugFont Class</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Enemy class</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Environment class</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fruit class</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Game class</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Game screen class</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>GameplayHandler Class</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>L1 report</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>L2 report</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>L3 prototype</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Level class</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LevelHandler class</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Line counting script</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Meetings</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Menu class</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ModelObj class</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PacmanGame Class</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Particle system</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Player class</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Primitives</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Putting the Foundation together</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>R1 report</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>R2 report</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>R3 report</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>R5 report</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>R6 report</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>R7 report</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Resource Manager</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Resources</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Scene class</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Setup Redmine</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sprite class</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>SpriteFont</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>State diagrams</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Table class</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>View::Ghost</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>View::Pacman</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>WBS</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Window class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$F$4:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="82274176"/>
+        <c:axId val="82275712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82274176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82275712"/>
+        <c:crossesAt val="1.0000000000000004E-6"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82275712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82274176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1325,6 +1908,41 @@
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1409703</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1944,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1988,7 +2606,7 @@
         <v>7404</v>
       </c>
       <c r="E5">
-        <v>3975</v>
+        <v>4037</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2620,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2079,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2158,6 +2776,876 @@
       </c>
       <c r="I7">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:F61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F55" si="0">B4/IF(C4="NULL",1,C4)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>4.5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>9.5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>3.5</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>23.25</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>3.5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46">
+        <v>18.5</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.0277777777777777</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>15.5</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57">
+        <f>SUM(B4:B55)</f>
+        <v>321.75</v>
+      </c>
+      <c r="C57">
+        <f>SUM(C4:C55)</f>
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58">
+        <f>MAX(F4:F55)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <f>B57/C57</f>
+        <v>1.1636528028933093</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59">
+        <f>MIN(F4:F55)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60">
+        <f>AVERAGE(F4:F55)</f>
+        <v>1.5230982905982902</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61">
+        <f>MEDIAN(F4:F55)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
